--- a/Food movement list.xlsx
+++ b/Food movement list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>Input</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t xml:space="preserve">Store </t>
+  </si>
+  <si>
+    <t>not enough</t>
   </si>
 </sst>
 </file>
@@ -76,12 +79,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -139,11 +148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +451,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,10 +587,12 @@
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
